--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A83B54-CB57-4516-B441-6DF9E6293861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54503A-0572-4CE7-BF22-D47AD19C916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,9 +33,6 @@
     <t>Company</t>
   </si>
   <si>
-    <t>Address *</t>
-  </si>
-  <si>
     <t>AdressLastname*</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
     <t>DateOfBirth*</t>
   </si>
   <si>
-    <t>Password *</t>
-  </si>
-  <si>
     <t>Email*</t>
   </si>
   <si>
@@ -60,12 +54,6 @@
     <t>Gender*</t>
   </si>
   <si>
-    <t>City *</t>
-  </si>
-  <si>
-    <t>State *</t>
-  </si>
-  <si>
     <t>Home phone</t>
   </si>
   <si>
@@ -102,9 +90,6 @@
     <t>UserY</t>
   </si>
   <si>
-    <t>Fimale</t>
-  </si>
-  <si>
     <t>Migle</t>
   </si>
   <si>
@@ -124,6 +109,21 @@
   </si>
   <si>
     <t>15-10-1993</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Password*</t>
+  </si>
+  <si>
+    <t>Address*</t>
+  </si>
+  <si>
+    <t>City*</t>
+  </si>
+  <si>
+    <t>State*</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -539,49 +539,49 @@
   <sheetData>
     <row r="1" spans="1:15" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -589,40 +589,40 @@
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="G2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="L2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="M2" s="6" t="s">
         <v>19</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>23</v>
       </c>
       <c r="N2" s="6"/>
       <c r="O2" s="6">
@@ -631,43 +631,43 @@
     </row>
     <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>31</v>
-      </c>
       <c r="H3" s="6" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="N3" s="6"/>
       <c r="O3" s="6">

--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB54503A-0572-4CE7-BF22-D47AD19C916D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560DCB48-0AD0-4746-84C8-C5F7B16F3684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -522,7 +522,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{560DCB48-0AD0-4746-84C8-C5F7B16F3684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEFF7D4-E038-42FA-BCB5-DC7B322017F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>UserX</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Gender*</t>
   </si>
   <si>
-    <t>Home phone</t>
-  </si>
-  <si>
-    <t>Mobile phone *</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -78,15 +72,6 @@
     <t>Expleo</t>
   </si>
   <si>
-    <t>Madi</t>
-  </si>
-  <si>
-    <t>Kairo</t>
-  </si>
-  <si>
-    <t>US</t>
-  </si>
-  <si>
     <t>UserY</t>
   </si>
   <si>
@@ -124,6 +109,36 @@
   </si>
   <si>
     <t>State*</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>ZipCode*</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>Madi 2</t>
+  </si>
+  <si>
+    <t>Madi 4</t>
+  </si>
+  <si>
+    <t>Country*</t>
+  </si>
+  <si>
+    <t>HomePhone</t>
+  </si>
+  <si>
+    <t>MobilePhone*</t>
   </si>
 </sst>
 </file>
@@ -519,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -531,15 +546,15 @@
     <col min="2" max="7" width="13.109375" style="3" customWidth="1"/>
     <col min="8" max="8" width="19.44140625" style="3" customWidth="1"/>
     <col min="9" max="9" width="24.44140625" style="3" customWidth="1"/>
-    <col min="10" max="13" width="13.109375" style="3" customWidth="1"/>
-    <col min="14" max="14" width="18.88671875" style="3" customWidth="1"/>
-    <col min="15" max="15" width="18.109375" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
+    <col min="10" max="15" width="13.109375" style="3" customWidth="1"/>
+    <col min="16" max="16" width="18.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="18.109375" style="3" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -554,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -569,108 +584,124 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>10</v>
+      <c r="O1" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="G2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" s="6">
+        <v>12345</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6">
+        <v>1028743586</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6">
-        <v>1028743586</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6">
+        <v>29</v>
+      </c>
+      <c r="N3" s="6">
+        <v>15242</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6">
         <v>102874358</v>
       </c>
     </row>

--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEFF7D4-E038-42FA-BCB5-DC7B322017F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C3C3E-9A6E-409C-86BF-F78E8FC49584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,12 +90,6 @@
     <t>Username*</t>
   </si>
   <si>
-    <t>15-10-1994</t>
-  </si>
-  <si>
-    <t>15-10-1993</t>
-  </si>
-  <si>
     <t>Female</t>
   </si>
   <si>
@@ -139,6 +133,12 @@
   </si>
   <si>
     <t>MobilePhone*</t>
+  </si>
+  <si>
+    <t>15/10/1994</t>
+  </si>
+  <si>
+    <t>15/10/1993</t>
   </si>
 </sst>
 </file>
@@ -536,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -569,7 +569,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -584,25 +584,25 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>27</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -625,7 +625,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>10</v>
@@ -635,19 +635,19 @@
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" s="6">
         <v>12345</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6">
@@ -659,7 +659,7 @@
         <v>15</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>16</v>
@@ -674,7 +674,7 @@
         <v>19</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>16</v>
@@ -686,19 +686,19 @@
         <v>14</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N3" s="6">
         <v>15242</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6">

--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{234C3C3E-9A6E-409C-86BF-F78E8FC49584}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1AB981-BC16-463A-B065-E903D08C9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
+    <sheet name="invalidPersonalData" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
   <si>
     <t>UserX</t>
   </si>
@@ -139,13 +148,133 @@
   </si>
   <si>
     <t>15/10/1993</t>
+  </si>
+  <si>
+    <t>option_1</t>
+  </si>
+  <si>
+    <t>!#?//?@//</t>
+  </si>
+  <si>
+    <t>option_2</t>
+  </si>
+  <si>
+    <t>option_3</t>
+  </si>
+  <si>
+    <t>raadelkader.gmail.com</t>
+  </si>
+  <si>
+    <t>test@</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>15.15.1998</t>
+  </si>
+  <si>
+    <t>Firstname</t>
+  </si>
+  <si>
+    <t>firstname_errorMsg</t>
+  </si>
+  <si>
+    <t>lastname_errorMsg</t>
+  </si>
+  <si>
+    <t>dateOfBirth_errorMsg</t>
+  </si>
+  <si>
+    <t>option_4</t>
+  </si>
+  <si>
+    <t>firstname is required</t>
+  </si>
+  <si>
+    <t>email_errorMsg</t>
+  </si>
+  <si>
+    <t>password_errorMsg</t>
+  </si>
+  <si>
+    <r>
+      <t>lastname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is required</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>lastname</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is invalid.</t>
+    </r>
+  </si>
+  <si>
+    <t>firstname is invalid.</t>
+  </si>
+  <si>
+    <t>email is required.</t>
+  </si>
+  <si>
+    <r>
+      <t>email</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is invalid.</t>
+    </r>
+  </si>
+  <si>
+    <t>/10/1994</t>
+  </si>
+  <si>
+    <t>15//1993</t>
+  </si>
+  <si>
+    <t>/999999999999999999999999999999999999999999999999999999999999999</t>
+  </si>
+  <si>
+    <t>15/10/</t>
+  </si>
+  <si>
+    <t>password is required.</t>
+  </si>
+  <si>
+    <t>Invalid date of birth</t>
+  </si>
+  <si>
+    <t>password is invalid.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +293,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -230,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -251,6 +387,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +680,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -714,4 +857,202 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB799184-2120-46BC-BF00-F532EA0B2152}">
+  <dimension ref="A1:K5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5546875" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="23.21875" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.21875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="9" max="9" width="23.21875" customWidth="1"/>
+    <col min="10" max="10" width="13.109375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="5"/>
+      <c r="C2" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3" s="6">
+        <v>9999999999</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="8">
+        <v>88888888885</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="7">
+        <v>123</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="7">
+        <v>77777</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F3" r:id="rId1" display="ra@adelkader.gmail.com" xr:uid="{4EB7893F-E7C4-4CCF-80E5-EFA7EE1F5A2E}"/>
+    <hyperlink ref="H3" r:id="rId2" display="ra@1245" xr:uid="{86CB6A27-958D-4850-93E0-F87FE30A6BF0}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{BD7E2C1E-12E0-4E73-B975-C9F1B944CBC2}"/>
+    <hyperlink ref="F5" r:id="rId4" display="ma@gmail" xr:uid="{FCFDA1E1-F7B3-45BC-94FE-1D832D3E12AE}"/>
+    <hyperlink ref="H5" r:id="rId5" display="\\\\\\\\\\\\\\\" xr:uid="{8F8725B1-3760-4D63-B20E-A641E52BE222}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{CA7EC442-B04F-4B5F-9720-355DCA57E705}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
+</worksheet>
 </file>
--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E1AB981-BC16-463A-B065-E903D08C9514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F40A08C-3566-40E9-9592-050216933229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>UserX</t>
   </si>
@@ -268,6 +268,21 @@
   </si>
   <si>
     <t>password is invalid.</t>
+  </si>
+  <si>
+    <t>Qcentris</t>
+  </si>
+  <si>
+    <t>DateOfBirth</t>
+  </si>
+  <si>
+    <t>Lastname</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -679,8 +694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -776,7 +791,9 @@
       <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="6"/>
+      <c r="J2" s="6" t="s">
+        <v>66</v>
+      </c>
       <c r="K2" s="6" t="s">
         <v>31</v>
       </c>
@@ -863,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB799184-2120-46BC-BF00-F532EA0B2152}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -891,25 +908,25 @@
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>68</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>5</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>4</v>
+        <v>67</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>49</v>

--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F40A08C-3566-40E9-9592-050216933229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3748C6B-1C30-446B-8EFA-E6775F87D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
   <si>
     <t>UserX</t>
   </si>
@@ -261,15 +261,9 @@
     <t>15/10/</t>
   </si>
   <si>
-    <t>password is required.</t>
-  </si>
-  <si>
     <t>Invalid date of birth</t>
   </si>
   <si>
-    <t>password is invalid.</t>
-  </si>
-  <si>
     <t>Qcentris</t>
   </si>
   <si>
@@ -283,6 +277,9 @@
   </si>
   <si>
     <t>Password</t>
+  </si>
+  <si>
+    <t>passwd is required.</t>
   </si>
 </sst>
 </file>
@@ -792,7 +789,7 @@
         <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K2" s="6" t="s">
         <v>31</v>
@@ -880,8 +877,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB799184-2120-46BC-BF00-F532EA0B2152}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,25 +905,25 @@
         <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>49</v>
@@ -950,7 +947,7 @@
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
@@ -981,13 +978,13 @@
         <v>123</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>60</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1016,13 +1013,13 @@
         <v>61</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>59</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1051,13 +1048,13 @@
         <v>44</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>62</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3748C6B-1C30-446B-8EFA-E6775F87D087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BCEA5-0D9F-4CEF-A8CF-E1C0B6AB4FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>UserX</t>
   </si>
@@ -280,6 +280,12 @@
   </si>
   <si>
     <t>passwd is required.</t>
+  </si>
+  <si>
+    <t>passwd is too long. Maximum length: 32</t>
+  </si>
+  <si>
+    <t>passwd is invalid.</t>
   </si>
 </sst>
 </file>
@@ -878,7 +884,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,7 +984,7 @@
         <v>123</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J3" s="6" t="s">
         <v>60</v>
@@ -1013,7 +1019,7 @@
         <v>61</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>59</v>
@@ -1048,7 +1054,7 @@
         <v>44</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J5" s="6" t="s">
         <v>62</v>

--- a/target/test-classes/testData/UsersData.xlsx
+++ b/target/test-classes/testData/UsersData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\E2E_Demo_Project\src\test\resources\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E84BCEA5-0D9F-4CEF-A8CF-E1C0B6AB4FB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20FDA4A7-6CAC-49F4-9EF9-178667A5EC97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
   <si>
     <t>UserX</t>
   </si>
@@ -76,9 +76,6 @@
   </si>
   <si>
     <t>ra@1245</t>
-  </si>
-  <si>
-    <t>Expleo</t>
   </si>
   <si>
     <t>UserY</t>
@@ -264,9 +261,6 @@
     <t>Invalid date of birth</t>
   </si>
   <si>
-    <t>Qcentris</t>
-  </si>
-  <si>
     <t>DateOfBirth</t>
   </si>
   <si>
@@ -286,6 +280,15 @@
   </si>
   <si>
     <t>passwd is invalid.</t>
+  </si>
+  <si>
+    <t>dL</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>Mig</t>
   </si>
 </sst>
 </file>
@@ -697,8 +700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -715,7 +718,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>8</v>
@@ -730,7 +733,7 @@
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>4</v>
@@ -745,25 +748,25 @@
         <v>1</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M1" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="N1" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="2" t="s">
         <v>34</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
@@ -786,7 +789,7 @@
         <v>13</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>10</v>
@@ -795,73 +798,73 @@
         <v>11</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N2" s="6">
         <v>12345</v>
       </c>
       <c r="O2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P2" s="6"/>
       <c r="Q2" s="6">
-        <v>1028743586</v>
+        <v>1028268523</v>
       </c>
     </row>
     <row r="3" spans="1:17" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="D3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="F3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>19</v>
-      </c>
       <c r="G3" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
       <c r="J3" s="6" t="s">
-        <v>14</v>
+        <v>71</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N3" s="6">
         <v>15242</v>
       </c>
       <c r="O3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P3" s="6"/>
       <c r="Q3" s="6">
@@ -883,7 +886,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB799184-2120-46BC-BF00-F532EA0B2152}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -905,162 +908,162 @@
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>48</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="9" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
     </row>
     <row r="3" spans="1:11" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="6">
         <v>9999999999</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" s="8">
         <v>88888888885</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H3" s="7">
         <v>123</v>
       </c>
       <c r="I3" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="K4" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="7">
         <v>77777</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="K5" s="6" t="s">
         <v>62</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
